--- a/data/jan2023/poll-jan-2023-good.xlsx
+++ b/data/jan2023/poll-jan-2023-good.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emerwin/Documents/NewsAppsGit/polldisplay/data/jan2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34AF4B6-0EBC-3345-8293-A54B55A54E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F85FF52-45CA-2141-8954-08A99180B028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{38ADB985-8FC9-4757-951B-F72E4C2F8E61}"/>
   </bookViews>
@@ -266,9 +266,6 @@
     <t>Marijuana should not be legal</t>
   </si>
   <si>
-    <t>Legal only for medical use only</t>
-  </si>
-  <si>
     <t>Legal for both medical and recreational use</t>
   </si>
   <si>
@@ -343,6 +340,9 @@
   <si>
     <t>Do you think things in the nation are generally headed in the right direction, or do you think things are off on the wrong track?</t>
   </si>
+  <si>
+    <t>Legal only for medical use</t>
+  </si>
 </sst>
 </file>
 
@@ -409,20 +409,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -748,8 +748,8 @@
   <dimension ref="A1:AB217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>28</v>
@@ -5658,7 +5658,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>45</v>
@@ -9801,7 +9801,7 @@
         <v>11</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>64</v>
@@ -10464,7 +10464,7 @@
         <v>12</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>67</v>
@@ -11292,7 +11292,7 @@
         <v>13</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>71</v>
@@ -11955,7 +11955,7 @@
         <v>14</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>52</v>
@@ -12456,7 +12456,7 @@
         <v>74</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="D142" s="6">
         <v>195.2377056961854</v>
@@ -12621,7 +12621,7 @@
         <v>15</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D144" s="6">
         <v>458.55052727495598</v>
@@ -12951,7 +12951,7 @@
         <v>15</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D148" s="6">
         <v>127.38559197296831</v>
@@ -13281,7 +13281,7 @@
         <v>16</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>45</v>
@@ -14109,10 +14109,10 @@
         <v>17</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D162" s="6">
         <v>467.33425205898084</v>
@@ -14277,7 +14277,7 @@
         <v>17</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D164" s="6">
         <v>299.94204893296671</v>
@@ -14607,10 +14607,10 @@
         <v>18</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D168" s="6">
         <v>27.836455729436835</v>
@@ -14775,7 +14775,7 @@
         <v>18</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D170" s="6">
         <v>239.6175653776171</v>
@@ -14940,7 +14940,7 @@
         <v>18</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D172" s="6">
         <v>572.81657870632614</v>
@@ -15270,10 +15270,10 @@
         <v>19</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D176" s="6">
         <v>276.98607166313235</v>
@@ -15438,7 +15438,7 @@
         <v>19</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D178" s="6">
         <v>466.96769997127467</v>
@@ -15768,10 +15768,10 @@
         <v>20</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D182" s="6">
         <v>428.67114862789578</v>
@@ -15936,7 +15936,7 @@
         <v>20</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D184" s="6">
         <v>297.76906568242902</v>
@@ -16266,10 +16266,10 @@
         <v>21</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D188" s="6">
         <v>341.43557612355056</v>
@@ -16434,7 +16434,7 @@
         <v>21</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D190" s="6">
         <v>428.51308531008112</v>
@@ -16764,10 +16764,10 @@
         <v>22</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D194" s="6">
         <v>304.26684432007687</v>
@@ -16932,7 +16932,7 @@
         <v>22</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D196" s="6">
         <v>461.45128377279059</v>
@@ -17262,10 +17262,10 @@
         <v>23</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D200" s="6">
         <v>327.24875274488261</v>
@@ -17430,7 +17430,7 @@
         <v>23</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D202" s="6">
         <v>475.40969665871484</v>
@@ -17760,10 +17760,10 @@
         <v>24</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D206" s="6">
         <v>303.32368477479247</v>
@@ -17928,7 +17928,7 @@
         <v>24</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D208" s="6">
         <v>419.38708641831943</v>
@@ -18258,10 +18258,10 @@
         <v>25</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D212" s="6">
         <v>322.81565225144982</v>
@@ -18426,7 +18426,7 @@
         <v>25</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D214" s="6">
         <v>323.36193453815935</v>
